--- a/aspnet-core/test/Timesheet.Application.Tests/Tables/dbo.DayOffSettings.xlsx
+++ b/aspnet-core/test/Timesheet.Application.Tests/Tables/dbo.DayOffSettings.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minh.nguyenvan\source\repos\ncc-erp-timesheet\aspnet-core\test\Timesheet.Application.Tests\Tables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="w5X+Qdyy7dnynq5/JWFbmu4yJJmF62zHs1wLZJyUc/c="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>Id</t>
   </si>
@@ -200,38 +199,38 @@
   </si>
   <si>
     <t>2024-03-31 00:00:00.0000000</t>
-  </si>
-  <si>
-    <t>2024-03-02 18:06:14.6718811</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -241,7 +240,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="3">
@@ -273,39 +272,45 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -387,7 +392,6 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -414,25 +418,24 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -493,7 +496,6 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -502,20 +504,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="9" width="8.71" customWidth="1"/>
-    <col min="10" max="10" width="25.57031" bestFit="1" customWidth="1"/>
-    <col min="11" max="26" width="8.71" customWidth="1"/>
+    <col customWidth="1" min="1" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,18 +554,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G2" s="2" t="b">
         <v>0</v>
@@ -573,21 +574,21 @@
         <v>13</v>
       </c>
       <c r="L2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G3" s="2" t="b">
         <v>0</v>
@@ -596,21 +597,21 @@
         <v>15</v>
       </c>
       <c r="L3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G4" s="2" t="b">
         <v>0</v>
@@ -619,21 +620,21 @@
         <v>17</v>
       </c>
       <c r="L4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -642,21 +643,21 @@
         <v>19</v>
       </c>
       <c r="L5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G6" s="2" t="b">
         <v>0</v>
@@ -665,21 +666,21 @@
         <v>21</v>
       </c>
       <c r="L6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B7" s="2">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G7" s="2" t="b">
         <v>0</v>
@@ -688,21 +689,21 @@
         <v>23</v>
       </c>
       <c r="L7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B8" s="2">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G8" s="2" t="b">
         <v>0</v>
@@ -711,21 +712,21 @@
         <v>25</v>
       </c>
       <c r="L8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B9" s="2">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G9" s="2" t="b">
         <v>0</v>
@@ -734,21 +735,21 @@
         <v>27</v>
       </c>
       <c r="L9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B10" s="2">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G10" s="2" t="b">
         <v>0</v>
@@ -757,21 +758,21 @@
         <v>29</v>
       </c>
       <c r="L10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B11" s="2">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G11" s="2" t="b">
         <v>0</v>
@@ -780,21 +781,21 @@
         <v>31</v>
       </c>
       <c r="L11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B12" s="2">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G12" s="2" t="b">
         <v>0</v>
@@ -803,21 +804,21 @@
         <v>33</v>
       </c>
       <c r="L12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B13" s="2">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G13" s="2" t="b">
         <v>0</v>
@@ -826,21 +827,21 @@
         <v>35</v>
       </c>
       <c r="L13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B14" s="2">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G14" s="2" t="b">
         <v>0</v>
@@ -849,21 +850,21 @@
         <v>37</v>
       </c>
       <c r="L14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B15" s="2">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G15" s="2" t="b">
         <v>0</v>
@@ -872,21 +873,21 @@
         <v>39</v>
       </c>
       <c r="L15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B16" s="2">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G16" s="2" t="b">
         <v>0</v>
@@ -895,21 +896,21 @@
         <v>41</v>
       </c>
       <c r="L16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B17" s="2">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G17" s="2" t="b">
         <v>0</v>
@@ -918,21 +919,21 @@
         <v>43</v>
       </c>
       <c r="L17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B18" s="2">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G18" s="2" t="b">
         <v>0</v>
@@ -941,21 +942,21 @@
         <v>45</v>
       </c>
       <c r="L18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="3">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B19" s="4">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -969,21 +970,21 @@
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="7">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B20" s="4">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -997,21 +998,21 @@
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="7">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B21" s="4">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1025,21 +1026,21 @@
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="7">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B22" s="4">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1053,21 +1054,21 @@
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="7">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B23" s="4">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1081,21 +1082,21 @@
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="7">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B24" s="4">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1109,21 +1110,21 @@
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="7">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B25" s="4">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1137,21 +1138,21 @@
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="7">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B26" s="4">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1165,21 +1166,21 @@
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="7">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B27" s="4">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1193,21 +1194,21 @@
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="7">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B28" s="4">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1221,37 +1222,10 @@
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="7">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4">
-        <v>28</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="8">
-        <v>45367</v>
-      </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="4">
-        <v>2</v>
-      </c>
-    </row>
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
@@ -2224,7 +2198,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>